--- a/tabele_z_notatkami/work_table_1.xlsx
+++ b/tabele_z_notatkami/work_table_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcinbuda/Desktop/zielu/tabele_z_notatkami/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3153E705-5DE0-3549-9B24-27734FB8A08E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EFA2111-D060-E14D-97B1-916322919BB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -1241,16 +1241,16 @@
     <t>możliwy garaz do dokupienia za 50k</t>
   </si>
   <si>
-    <t>dupa dupa dupa</t>
-  </si>
-  <si>
     <t>było  259000 dupa dupa</t>
   </si>
   <si>
-    <t>dupa dupa</t>
-  </si>
-  <si>
     <t>02.07 było 330000 było nieaktywne wróciło 13.09 dupa dupa</t>
+  </si>
+  <si>
+    <t>dziala hehe</t>
+  </si>
+  <si>
+    <t>dziala hehehehe</t>
   </si>
 </sst>
 </file>
@@ -1258,7 +1258,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -1315,7 +1315,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -1620,8 +1620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA118"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1753,7 +1753,7 @@
         <v>31</v>
       </c>
       <c r="R2" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="T2" t="s">
         <v>32</v>
@@ -1827,7 +1827,7 @@
         <v>31</v>
       </c>
       <c r="R3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="T3" t="s">
         <v>32</v>
@@ -10211,8 +10211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AA45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10427,7 +10427,7 @@
         <v>69</v>
       </c>
       <c r="R3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="T3" t="s">
         <v>42</v>
